--- a/testing_logistic.xlsx
+++ b/testing_logistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LEAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEB43A68-4F24-4063-8E1D-DD19F3E7D4C0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6261164-989B-493A-8987-D9A4BCE8DF87}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4170" xr2:uid="{216E829E-2EE5-47E3-BC25-2AA9D0CD1431}"/>
   </bookViews>
@@ -382,75 +382,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E601CB-B54F-4CDA-A411-ACD6C308FBF0}">
-  <dimension ref="B2:C9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="B1:E1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
       <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
       <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>17</v>
+      </c>
       <c r="B5">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20</v>
+      </c>
       <c r="B6">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>23</v>
+      </c>
       <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>25</v>
+      </c>
       <c r="B8">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>25</v>
-      </c>
-      <c r="C9">
         <v>250</v>
       </c>
     </row>
